--- a/biology/Botanique/Sidney_Fay_Blake/Sidney_Fay_Blake.xlsx
+++ b/biology/Botanique/Sidney_Fay_Blake/Sidney_Fay_Blake.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sidney Fay Blake est un botaniste américain, né le 31 août 1892 à Stoughton, Massachusetts et mort le 31 décembre 1959 à Beltsville dans le Maryland.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’un de ses voisins n’est autre que le botaniste Robert Greenleaf Leavitt (1865-1942), travaillant à Harvard, qui l’initie étant enfant à la botanique. Blake étudie à Harvard aux côtés de Benjamin Lincoln Robinson (1864-1935) et Merritt Lyndon Fernald (1873-1950). Il y obtient son Bachelor of Arts en 1912, son Master of Arts à 1913 et son Ph. D. en botanique en 1917, avec une thèse portant sur le genre Viguiera. Il commence alors à travailler pour le bureau des plantes industrielles du Département de l'Agriculture des États-Unis et où il passe toute sa carrière. Il travaille sous la direction de Frederick Vernon Coville (1867-1937) à la standardisation des noms des végétaux. Il devient le président en 1943 de l’American Society of Plant Taxonomists. Il s’intéresse par ailleurs à la paléontologie et à Sherlock Holmes.
 </t>
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Biographie du New York Botanical Garden.
 (en) Biographie du Smithsonian Institution Archives.</t>
